--- a/Material/Interview Questions.xlsx
+++ b/Material/Interview Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7680" activeTab="5"/>
+    <workbookView windowWidth="18610" windowHeight="7680" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="BI" sheetId="4" r:id="rId4"/>
     <sheet name="BDD " sheetId="5" r:id="rId5"/>
     <sheet name="SQL" sheetId="6" r:id="rId6"/>
+    <sheet name="Online Selenium Interview Quest" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
   <si>
     <t>S.No</t>
   </si>
@@ -1416,6 +1417,74 @@
   <si>
     <t>https://www.360logica.com/blog/what-is-database-testing/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Questions </t>
+  </si>
+  <si>
+    <t>Difference between get and navigate methods in Selenium?</t>
+  </si>
+  <si>
+    <t>Difference between Quit and Close methods in Selenium?</t>
+  </si>
+  <si>
+    <t>What is Implicit Wait?</t>
+  </si>
+  <si>
+    <t>Difference between Implicit and Explicit Wait?</t>
+  </si>
+  <si>
+    <t>In how many ways we can handle frames in the application using WebDriver methods?</t>
+  </si>
+  <si>
+    <t>Selenium can not handle frames directly. i.e. driver.switchTo().frame(frame ID);( Note:Frame ID willbe given by the Delevlpers)</t>
+  </si>
+  <si>
+    <t>Code to handle 3 Child Window?</t>
+  </si>
+  <si>
+    <t>Selenium will be only on 1st window. To tell selenium to go on 3rd child window: Set &lt;String&gt; s=Driver.getWindowsHandles();
+It =s.iterator();
+It.next()// 0th Index of s
+It.next()// 1st Index of s
+String windowid3rd=It.next();
+Driver.switchTo().window(windowid3rd); // Will go to 3rd window</t>
+  </si>
+  <si>
+    <t>How to handle https certifications?</t>
+  </si>
+  <si>
+    <t>DesiredCapabilities cap = DesiredCapabalities.Chrome();
+// Set Accept _SSL_CLERTS variable to true
+cap.setCapability(CapabilityType.ACCEPT_SSL_CLERTS, true);</t>
+  </si>
+  <si>
+    <t>Different type of locators present in WebDriver?</t>
+  </si>
+  <si>
+    <t>Write Syntax for Xpath and CSS  if id and tag are given</t>
+  </si>
+  <si>
+    <t>Xpath syntax = //tagname[@id='value']
+CSS = tagname[id=value]</t>
+  </si>
+  <si>
+    <t>How to use Containd regular expression to Xpath path?</t>
+  </si>
+  <si>
+    <t>How to use regular expressions to CSS?</t>
+  </si>
+  <si>
+    <t>What is the Class available in Selenium to handle drop downs?</t>
+  </si>
+  <si>
+    <t>What is the Method to check if checkbox is selected?</t>
+  </si>
+  <si>
+    <t>How to validate if element is visible or hidden in webpages?</t>
+  </si>
+  <si>
+    <t>How to get the count of similar objects list in the webpages?</t>
+  </si>
 </sst>
 </file>
 
@@ -1465,23 +1534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,9 +1557,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,17 +1604,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,7 +1620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,7 +1635,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,13 +1658,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,73 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,7 +1738,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,7 +1774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,13 +1798,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,7 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,13 +1846,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,19 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,13 +1905,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1872,21 +1945,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1910,6 +1968,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1927,9 +1994,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1938,7 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1956,10 +2025,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1968,127 +2037,130 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -2478,7 +2550,7 @@
       </c>
     </row>
     <row r="2" ht="74" customHeight="1" spans="1:3">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2489,18 +2561,18 @@
       </c>
     </row>
     <row r="3" ht="188.5" spans="1:3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2508,18 +2580,18 @@
       </c>
     </row>
     <row r="5" ht="116" spans="1:3">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="174" spans="1:5">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2528,15 +2600,15 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2545,12 +2617,12 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2564,55 +2636,55 @@
       </c>
     </row>
     <row r="9" ht="188.5" spans="1:5">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:5">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:5">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2623,21 +2695,21 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:3">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2664,18 +2736,18 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:5">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
@@ -2690,14 +2762,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:3">
-      <c r="A20" s="12">
+    <row r="20" s="8" customFormat="1" spans="1:3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2709,14 +2781,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:3">
-      <c r="A22" s="7">
+    <row r="22" s="8" customFormat="1" spans="1:3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2857,30 +2929,30 @@
       </c>
     </row>
     <row r="40" ht="188.5" spans="1:5">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="87" spans="1:5">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3513,3072 +3585,3072 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="87" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" ht="362.5" spans="1:7">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" ht="362.5" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="188.5" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" ht="145" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="188.5" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" ht="188.5" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" ht="217.5" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="203" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="130.5" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" ht="409.5" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" ht="409.5" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" ht="409.5" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" ht="409.5" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" ht="275.5" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" ht="130.5" spans="1:7">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" ht="130.5" spans="1:7">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" ht="203" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="5">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="5">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="5">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="5">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="5">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="5">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="5">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="5">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="5">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="5">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="5">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="5">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="5">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="5">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="5">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="5">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="5">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="5">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="5">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="5">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="5">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="5">
+      <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="5">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="5">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="5">
+      <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="5">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="5">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="5">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="5">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="5">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="5">
+      <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="5">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="5">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="5">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="5">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="5">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="5">
+      <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="5">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="5">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="5">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="5">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="5">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="5">
+      <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="5">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="5">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="5">
+      <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="5">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="5">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="5">
+      <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="5">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="5">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="5">
+      <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="5">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="5">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="5">
+      <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="5">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="5">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="5">
+      <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="5">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="5">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="5">
+      <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="5">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="5">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="5">
+      <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="5">
+      <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="5">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="5">
+      <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="5">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="5">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="5">
+      <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="5">
+      <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="5">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="5">
+      <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="5">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="5">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="5">
+      <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="5">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="5">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="5">
+      <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="5">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="5">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="5">
+      <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="5">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="5">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="5">
+      <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="5">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="5">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="5">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="5">
+      <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="5">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="5">
+      <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="5">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="5">
+      <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="5">
+      <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="5">
+      <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="5">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="5">
+      <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="5">
+      <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="5">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="5">
+      <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="5">
+      <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="5">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="5">
+      <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="5">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="5">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="5">
+      <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="5">
+      <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="5">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="5">
+      <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="5">
+      <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="5">
+      <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="5">
+      <c r="A217" s="6">
         <v>216</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="5">
+      <c r="A218" s="6">
         <v>217</v>
       </c>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="5">
+      <c r="A219" s="6">
         <v>218</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="5">
+      <c r="A220" s="6">
         <v>219</v>
       </c>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="5">
+      <c r="A221" s="6">
         <v>220</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="5">
+      <c r="A222" s="6">
         <v>221</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="5">
+      <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="5">
+      <c r="A224" s="6">
         <v>223</v>
       </c>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="5">
+      <c r="A225" s="6">
         <v>224</v>
       </c>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="5">
+      <c r="A226" s="6">
         <v>225</v>
       </c>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="5">
+      <c r="A227" s="6">
         <v>226</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="5">
+      <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="5">
+      <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="5">
+      <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="5">
+      <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="5">
+      <c r="A232" s="6">
         <v>231</v>
       </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="5">
+      <c r="A233" s="6">
         <v>232</v>
       </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="5">
+      <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="5">
+      <c r="A235" s="6">
         <v>234</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="5">
+      <c r="A236" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="5">
+      <c r="A237" s="6">
         <v>236</v>
       </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="5">
+      <c r="A238" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="5">
+      <c r="A239" s="6">
         <v>238</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="5">
+      <c r="A240" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="5">
+      <c r="A241" s="6">
         <v>240</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="5">
+      <c r="A242" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="5">
+      <c r="A243" s="6">
         <v>242</v>
       </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="5">
+      <c r="A244" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="5">
+      <c r="A245" s="6">
         <v>244</v>
       </c>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="5">
+      <c r="A246" s="6">
         <v>245</v>
       </c>
-      <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="5">
+      <c r="A247" s="6">
         <v>246</v>
       </c>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="5">
+      <c r="A248" s="6">
         <v>247</v>
       </c>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="5">
+      <c r="A249" s="6">
         <v>248</v>
       </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="5">
+      <c r="A250" s="6">
         <v>249</v>
       </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="5">
+      <c r="A251" s="6">
         <v>250</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="5">
+      <c r="A252" s="6">
         <v>251</v>
       </c>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="5">
+      <c r="A253" s="6">
         <v>252</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="5">
+      <c r="A254" s="6">
         <v>253</v>
       </c>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="5">
+      <c r="A255" s="6">
         <v>254</v>
       </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="5">
+      <c r="A256" s="6">
         <v>255</v>
       </c>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7707,7 +7779,7 @@
       <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7782,7 +7854,7 @@
       <c r="A13" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7801,7 +7873,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7819,7 +7891,7 @@
       <c r="A2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7827,7 +7899,7 @@
       <c r="A3" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7839,4 +7911,120 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="112.363636363636" customWidth="1"/>
+    <col min="2" max="2" width="33.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" ht="29" spans="1:2">
+      <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>